--- a/animalMate/src/db/members.xlsx
+++ b/animalMate/src/db/members.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\animalMate\animalMate\src\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2AD4F8-C699-4C8E-9DA7-AC3D0E2E0750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -591,14 +597,26 @@
     <t>www21@naver.com</t>
   </si>
   <si>
-    <t>none</t>
+    <t>images/members_pic/profile1.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/members_pic/profile2.jpg</t>
+  </si>
+  <si>
+    <t>images/members_pic/profile3.jpg</t>
+  </si>
+  <si>
+    <t>images/members_pic/profile4.jpg</t>
+  </si>
+  <si>
+    <t>images/members_pic/profile5.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,6 +706,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -735,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,9 +789,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -978,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,6 +1047,7 @@
     <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1126,7 +1182,7 @@
         <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N3">
         <v>810101</v>
@@ -1173,7 +1229,7 @@
         <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N4">
         <v>820101</v>
@@ -1220,7 +1276,7 @@
         <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N5">
         <v>830101</v>
@@ -1267,7 +1323,7 @@
         <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N6">
         <v>840101</v>
@@ -1361,7 +1417,7 @@
         <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N8">
         <v>860101</v>
@@ -1408,7 +1464,7 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N9">
         <v>870101</v>
@@ -1455,7 +1511,7 @@
         <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N10">
         <v>880101</v>
@@ -1502,7 +1558,7 @@
         <v>173</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N11">
         <v>890101</v>
@@ -1596,7 +1652,7 @@
         <v>175</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N13">
         <v>910101</v>
@@ -1643,7 +1699,7 @@
         <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N14">
         <v>920101</v>
@@ -1690,7 +1746,7 @@
         <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N15">
         <v>930101</v>
@@ -1737,7 +1793,7 @@
         <v>178</v>
       </c>
       <c r="M16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N16">
         <v>940101</v>
@@ -1831,7 +1887,7 @@
         <v>180</v>
       </c>
       <c r="M18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18">
         <v>960101</v>
@@ -1878,7 +1934,7 @@
         <v>181</v>
       </c>
       <c r="M19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N19">
         <v>970101</v>
@@ -1925,7 +1981,7 @@
         <v>182</v>
       </c>
       <c r="M20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N20">
         <v>980101</v>
@@ -1972,7 +2028,7 @@
         <v>183</v>
       </c>
       <c r="M21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N21">
         <v>990101</v>
@@ -2031,34 +2087,35 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3" display="www1@naver.com"/>
-    <hyperlink ref="L6" r:id="rId4" display="www1@naver.com"/>
-    <hyperlink ref="L8" r:id="rId5" display="www1@naver.com"/>
-    <hyperlink ref="L10" r:id="rId6" display="www1@naver.com"/>
-    <hyperlink ref="L12" r:id="rId7" display="www1@naver.com"/>
-    <hyperlink ref="L14" r:id="rId8" display="www1@naver.com"/>
-    <hyperlink ref="L16" r:id="rId9" display="www1@naver.com"/>
-    <hyperlink ref="L18" r:id="rId10" display="www1@naver.com"/>
-    <hyperlink ref="L20" r:id="rId11" display="www1@naver.com"/>
-    <hyperlink ref="L22" r:id="rId12" display="www2@naver.com"/>
-    <hyperlink ref="L5" r:id="rId13" display="www2@naver.com"/>
-    <hyperlink ref="L7" r:id="rId14" display="www2@naver.com"/>
-    <hyperlink ref="L9" r:id="rId15" display="www2@naver.com"/>
-    <hyperlink ref="L11" r:id="rId16" display="www2@naver.com"/>
-    <hyperlink ref="L13" r:id="rId17" display="www2@naver.com"/>
-    <hyperlink ref="L15" r:id="rId18" display="www2@naver.com"/>
-    <hyperlink ref="L17" r:id="rId19" display="www2@naver.com"/>
-    <hyperlink ref="L19" r:id="rId20" display="www2@naver.com"/>
-    <hyperlink ref="L21" r:id="rId21" display="www2@naver.com"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L8" r:id="rId5" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L10" r:id="rId6" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L12" r:id="rId7" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L14" r:id="rId8" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L16" r:id="rId9" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L18" r:id="rId10" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L20" r:id="rId11" display="www1@naver.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L22" r:id="rId12" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L5" r:id="rId13" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L7" r:id="rId14" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L9" r:id="rId15" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L11" r:id="rId16" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L13" r:id="rId17" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L15" r:id="rId18" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L17" r:id="rId19" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L19" r:id="rId20" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L21" r:id="rId21" display="www2@naver.com" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2071,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/animalMate/src/db/members.xlsx
+++ b/animalMate/src/db/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\animalMate\animalMate\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2AD4F8-C699-4C8E-9DA7-AC3D0E2E0750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3739A7-6019-44DF-99F0-790A15143ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,20 +597,24 @@
     <t>www21@naver.com</t>
   </si>
   <si>
-    <t>images/members_pic/profile1.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/members_pic/profile2.jpg</t>
-  </si>
-  <si>
-    <t>images/members_pic/profile3.jpg</t>
-  </si>
-  <si>
-    <t>images/members_pic/profile4.jpg</t>
-  </si>
-  <si>
-    <t>images/members_pic/profile5.jpg</t>
+    <t>profile1.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile2.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile4.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1037,7 +1041,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
